--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addierohrbach/GitHub/ChatFAQs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Petersen\Documents\GitHub\ChatFAQs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC68E3-BACF-48BF-9601-BB8FE6FE41D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1428" yWindow="-72" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,15 +27,119 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>What new enhancements are available in NM MyChart (web)?</t>
+  </si>
+  <si>
+    <t>&lt;h2 id="RE_enhancements"&gt;What new enhancements are available in NM MyChart (web)?&lt;/h2&gt;&lt;p&gt;&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Include certain attachments, like photos and video, on messages sent to your provider.&lt;/li&gt;&lt;li&gt;Complete the Pre Check-In process from home, saving you time when you arrive for your appointment. You can electronically sign documents, update your demographics information, add or verify insurance (including submitting insurance card images), add credit card information to pay outstanding balances, pre-payments, or authorize copays, and update information about your medical history (including your medications, allergies, and preferred pharmacy).&lt;/li&gt;&lt;li&gt;View orders and tests placed by your physician.&lt;/li&gt;&lt;li&gt;Request records and view copies of information released from Medical Records.&lt;/li&gt;&lt;li&gt;Patients who are pregnant can pre-register for their day of delivery to save time when arriving at the hospital.&lt;/li&gt;&lt;li&gt;Link your NM MyChart account to other organizations via Happy Together to view clinical information from another organization in your NM MyChart account. &lt;/li&gt;&lt;li&gt;Allow non-NM physicians to review your NM MyChart information by generating a Share Everywhere code. &lt;/li&gt;&lt;li&gt;Utilize the Pay as Guest page to pay bills without needing to log into your MyChart account. &lt;/li&gt;&lt;li&gt;Keep your clinicians up-to-date on your End-of-Life / Advance Care Planning decisions by uploading the associated documents in our Advance Care Planning activity.&lt;/li&gt;&lt;li&gt;Keep track of all of your documents in the My Documents section. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDF004F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFDF004F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,20 +159,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3822F271-4080-46A6-BA12-78AAF030AE6F}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -335,13 +546,3610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="18"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="19"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="18"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="17"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="18"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="18"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="18"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="18"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="17"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="18"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="17"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="19"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="18"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="18"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="21"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="17"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="18"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="17"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="17"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="18"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="17"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="18"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="18"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="17"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="14"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="18"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="17"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="14"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="18"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="18"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="17"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="14"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="21"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="18"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="17"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="14"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="18"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="18"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="17"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="14"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="13"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="18"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="17"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="14"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="18"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="18"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="17"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="13"/>
+    </row>
+    <row r="245" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="14"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="13"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="18"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="13"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="17"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A251" s="14"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="18"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="17"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="13"/>
+    </row>
+    <row r="257" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A257" s="14"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="18"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="13"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="17"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="19"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A267" s="14"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="18"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="17"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+    </row>
+    <row r="273" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A273" s="14"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="18"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="17"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+    </row>
+    <row r="279" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A279" s="14"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="18"/>
+    </row>
+    <row r="282" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A282" s="13"/>
+      <c r="F282" s="7"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="18"/>
+    </row>
+    <row r="284" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A284" s="13"/>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="18"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="13"/>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="17"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="17"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="17"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="13"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="17"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="13"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A293" s="14"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="13"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="23"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="18"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="13"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="23"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="21"/>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="21"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="13"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="17"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="13"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A307" s="14"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="13"/>
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="18"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="13"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="17"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="13"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A313" s="14"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="13"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="18"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="13"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="17"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="13"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A319" s="14"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="13"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="18"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="13"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="17"/>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="13"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A325" s="19"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="13"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="13"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A329" s="14"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="13"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="18"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="13"/>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="17"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="13"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A335" s="14"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="13"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="18"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="13"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="17"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="13"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A341" s="14"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="13"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="18"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="17"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A347" s="14"/>
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="13"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="18"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="13"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="17"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="13"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="17"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="13"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A355" s="14"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="13"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="18"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="17"/>
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="13"/>
+      <c r="F360" s="1"/>
+    </row>
+    <row r="361" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A361" s="14"/>
+      <c r="F361" s="1"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="13"/>
+      <c r="F362" s="1"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="18"/>
+      <c r="F363" s="1"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="13"/>
+      <c r="F364" s="1"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="17"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="13"/>
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A367" s="14"/>
+      <c r="F367" s="1"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="13"/>
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="18"/>
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="13"/>
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="18"/>
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="13"/>
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="21"/>
+      <c r="F373" s="1"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="13"/>
+      <c r="F374" s="1"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="17"/>
+      <c r="F375" s="1"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="13"/>
+      <c r="F376" s="1"/>
+    </row>
+    <row r="377" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A377" s="14"/>
+      <c r="F377" s="1"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="13"/>
+      <c r="F378" s="1"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="18"/>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="13"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="18"/>
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="13"/>
+      <c r="F382" s="1"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="17"/>
+      <c r="F383" s="1"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="13"/>
+      <c r="F384" s="1"/>
+    </row>
+    <row r="385" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A385" s="14"/>
+      <c r="F385" s="1"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="13"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="18"/>
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="13"/>
+      <c r="F388" s="1"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="17"/>
+      <c r="F389" s="1"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="13"/>
+      <c r="F390" s="1"/>
+    </row>
+    <row r="391" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A391" s="14"/>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="13"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="18"/>
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="13"/>
+      <c r="F394" s="1"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="17"/>
+      <c r="F395" s="1"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="13"/>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A397" s="14"/>
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="13"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="18"/>
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="13"/>
+      <c r="F400" s="1"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="17"/>
+      <c r="F401" s="1"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="13"/>
+      <c r="F402" s="1"/>
+    </row>
+    <row r="403" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A403" s="14"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="13"/>
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="18"/>
+      <c r="F405" s="1"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="13"/>
+      <c r="F406" s="1"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="17"/>
+      <c r="F407" s="1"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="13"/>
+      <c r="F408" s="1"/>
+    </row>
+    <row r="409" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A409" s="14"/>
+      <c r="F409" s="1"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="13"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="18"/>
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="13"/>
+      <c r="F412" s="1"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="17"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="13"/>
+    </row>
+    <row r="415" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A415" s="19"/>
+    </row>
+    <row r="416" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A416" s="13"/>
+      <c r="F416" s="7"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A419" s="14"/>
+    </row>
+    <row r="420" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A420" s="13"/>
+      <c r="F420" s="8"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="18"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="15"/>
+      <c r="F422" s="1"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="16"/>
+      <c r="F423" s="1"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="16"/>
+      <c r="F424" s="1"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="16"/>
+      <c r="F425" s="1"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="16"/>
+      <c r="F426" s="1"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="16"/>
+      <c r="F427" s="1"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="16"/>
+      <c r="F428" s="1"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="13"/>
+      <c r="F429" s="1"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="18"/>
+      <c r="F430" s="1"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="13"/>
+      <c r="F431" s="1"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="18"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="13"/>
+      <c r="F433" s="1"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="17"/>
+    </row>
+    <row r="435" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A435" s="13"/>
+      <c r="F435" s="8"/>
+    </row>
+    <row r="436" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A436" s="14"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="13"/>
+      <c r="F437" s="1"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="18"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="15"/>
+      <c r="F439" s="1"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="16"/>
+      <c r="F440" s="1"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" s="20"/>
+      <c r="F441" s="1"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="15"/>
+      <c r="F442" s="1"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="16"/>
+      <c r="F443" s="1"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="16"/>
+      <c r="F444" s="1"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" s="16"/>
+      <c r="F445" s="1"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" s="16"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" s="13"/>
+      <c r="F447" s="1"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="17"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" s="13"/>
+      <c r="F449" s="1"/>
+    </row>
+    <row r="450" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A450" s="14"/>
+      <c r="F450" s="1"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="13"/>
+      <c r="F451" s="1"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" s="18"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="13"/>
+      <c r="F453" s="1"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" s="17"/>
+    </row>
+    <row r="455" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A455" s="13"/>
+      <c r="F455" s="7"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" s="18"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" s="13"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" s="17"/>
+    </row>
+    <row r="459" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A459" s="13"/>
+      <c r="F459" s="8"/>
+    </row>
+    <row r="460" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A460" s="14"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" s="13"/>
+      <c r="F461" s="1"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" s="18"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" s="13"/>
+      <c r="F463" s="1"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" s="17"/>
+      <c r="F464" s="1"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="13"/>
+      <c r="F465" s="1"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" s="17"/>
+      <c r="F466" s="1"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="13"/>
+      <c r="F467" s="1"/>
+    </row>
+    <row r="468" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A468" s="14"/>
+      <c r="F468" s="1"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" s="13"/>
+      <c r="F469" s="1"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="17"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" s="13"/>
+      <c r="F471" s="1"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" s="17"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" s="13"/>
+      <c r="F473" s="1"/>
+    </row>
+    <row r="474" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A474" s="14"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" s="13"/>
+      <c r="F475" s="1"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" s="18"/>
+    </row>
+    <row r="477" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A477" s="13"/>
+      <c r="F477" s="8"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" s="17"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" s="13"/>
+      <c r="F479" s="1"/>
+    </row>
+    <row r="480" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A480" s="14"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A481" s="13"/>
+      <c r="F481" s="1"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" s="18"/>
+    </row>
+    <row r="483" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A483" s="13"/>
+      <c r="F483" s="8"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" s="17"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A485" s="13"/>
+      <c r="F485" s="1"/>
+    </row>
+    <row r="486" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A486" s="14"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A487" s="13"/>
+      <c r="F487" s="1"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A488" s="18"/>
+    </row>
+    <row r="489" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F489" s="8"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" s="18"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" s="13"/>
+      <c r="F491" s="1"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" s="17"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" s="13"/>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A494" s="14"/>
+      <c r="F494" s="1"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" s="13"/>
+      <c r="F495" s="1"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" s="18"/>
+      <c r="F496" s="1"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F497" s="1"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="18"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="13"/>
+      <c r="F499" s="1"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" s="18"/>
+    </row>
+    <row r="501" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A501" s="13"/>
+      <c r="F501" s="8"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="17"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" s="13"/>
+      <c r="F503" s="1"/>
+    </row>
+    <row r="504" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A504" s="14"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" s="13"/>
+      <c r="F505" s="1"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" s="18"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" s="13"/>
+      <c r="F507" s="1"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="17"/>
+    </row>
+    <row r="509" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A509" s="13"/>
+      <c r="F509" s="8"/>
+    </row>
+    <row r="510" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A510" s="19"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="13"/>
+      <c r="F511" s="1"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" s="13"/>
+      <c r="F513" s="1"/>
+    </row>
+    <row r="514" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A514" s="14"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" s="13"/>
+      <c r="F515" s="1"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" s="18"/>
+    </row>
+    <row r="517" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A517" s="15"/>
+      <c r="F517" s="8"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" s="16"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="16"/>
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" s="16"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" s="16"/>
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" s="13"/>
+    </row>
+    <row r="523" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A523" s="18"/>
+      <c r="F523" s="8"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="13"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="17"/>
+      <c r="F525" s="1"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="13"/>
+    </row>
+    <row r="527" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A527" s="14"/>
+      <c r="F527" s="1"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="13"/>
+      <c r="F528" s="1"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="18"/>
+      <c r="F529" s="1"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="13"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="17"/>
+      <c r="F531" s="1"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="13"/>
+    </row>
+    <row r="533" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A533" s="14"/>
+      <c r="F533" s="1"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="13"/>
+    </row>
+    <row r="535" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A535" s="18"/>
+      <c r="F535" s="8"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="13"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="17"/>
+      <c r="F537" s="1"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="13"/>
+    </row>
+    <row r="539" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A539" s="14"/>
+      <c r="F539" s="1"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" s="13"/>
+    </row>
+    <row r="541" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A541" s="18"/>
+      <c r="F541" s="7"/>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="13"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="17"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="13"/>
+    </row>
+    <row r="545" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A545" s="14"/>
+      <c r="F545" s="8"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" s="13"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="18"/>
+      <c r="F547" s="1"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="13"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="17"/>
+      <c r="F549" s="1"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="13"/>
+    </row>
+    <row r="551" spans="1:6" ht="31.2" x14ac:dyDescent="0.45">
+      <c r="A551" s="19"/>
+      <c r="F551" s="8"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" s="13"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F553" s="1"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" s="13"/>
+    </row>
+    <row r="555" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A555" s="14"/>
+      <c r="F555" s="1"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="13"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="18"/>
+      <c r="F557" s="1"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="13"/>
+    </row>
+    <row r="559" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A559" s="17"/>
+      <c r="F559" s="8"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" s="13"/>
+    </row>
+    <row r="561" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A561" s="14"/>
+      <c r="F561" s="1"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" s="13"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="18"/>
+      <c r="F563" s="1"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="15"/>
+    </row>
+    <row r="565" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A565" s="16"/>
+      <c r="F565" s="8"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" s="16"/>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" s="16"/>
+      <c r="F567" s="1"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" s="13"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" s="18"/>
+      <c r="F569" s="1"/>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" s="13"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" s="18"/>
+      <c r="F571" s="1"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" s="18"/>
+    </row>
+    <row r="573" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A573" s="18"/>
+      <c r="F573" s="8"/>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" s="18"/>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" s="13"/>
+      <c r="F575" s="1"/>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" s="18"/>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" s="13"/>
+      <c r="F577" s="1"/>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" s="17"/>
+    </row>
+    <row r="579" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A579" s="13"/>
+      <c r="F579" s="7"/>
+    </row>
+    <row r="580" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A580" s="14"/>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" s="13"/>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="18"/>
+    </row>
+    <row r="583" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A583" s="13"/>
+      <c r="F583" s="8"/>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" s="17"/>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" s="13"/>
+      <c r="F585" s="1"/>
+    </row>
+    <row r="586" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A586" s="14"/>
+      <c r="F586" s="1"/>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" s="13"/>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" s="18"/>
+      <c r="F588" s="2"/>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" s="13"/>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" s="17"/>
+      <c r="F590" s="1"/>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" s="13"/>
+    </row>
+    <row r="592" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A592" s="14"/>
+      <c r="F592" s="8"/>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" s="13"/>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" s="18"/>
+      <c r="F594" s="1"/>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" s="13"/>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" s="17"/>
+      <c r="F596" s="1"/>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" s="13"/>
+    </row>
+    <row r="598" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A598" s="14"/>
+      <c r="F598" s="1"/>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" s="13"/>
+    </row>
+    <row r="600" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A600" s="18"/>
+      <c r="F600" s="8"/>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" s="13"/>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" s="17"/>
+      <c r="F602" s="1"/>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" s="13"/>
+    </row>
+    <row r="604" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A604" s="14"/>
+      <c r="F604" s="1"/>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" s="13"/>
+    </row>
+    <row r="606" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A606" s="18"/>
+      <c r="F606" s="8"/>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" s="13"/>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" s="17"/>
+      <c r="F608" s="1"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" s="13"/>
+    </row>
+    <row r="610" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A610" s="14"/>
+      <c r="F610" s="1"/>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" s="13"/>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" s="18"/>
+      <c r="F612" s="1"/>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" s="13"/>
+    </row>
+    <row r="614" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A614" s="17"/>
+      <c r="F614" s="8"/>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="13"/>
+    </row>
+    <row r="616" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A616" s="14"/>
+      <c r="F616" s="1"/>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="13"/>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="18"/>
+      <c r="F618" s="1"/>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="15"/>
+    </row>
+    <row r="620" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A620" s="16"/>
+      <c r="F620" s="8"/>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="16"/>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="13"/>
+      <c r="F622" s="1"/>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="18"/>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="13"/>
+      <c r="F624" s="1"/>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" s="17"/>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" s="13"/>
+      <c r="F626" s="3"/>
+    </row>
+    <row r="627" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A627" s="14"/>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" s="13"/>
+      <c r="F628" s="1"/>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" s="18"/>
+    </row>
+    <row r="630" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A630" s="13"/>
+      <c r="F630" s="8"/>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" s="17"/>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" s="13"/>
+      <c r="F632" s="2"/>
+    </row>
+    <row r="633" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A633" s="14"/>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" s="13"/>
+      <c r="F634" s="1"/>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" s="18"/>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="13"/>
+      <c r="F636" s="1"/>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="18"/>
+    </row>
+    <row r="638" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A638" s="13"/>
+      <c r="F638" s="8"/>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="18"/>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="13"/>
+      <c r="F640" s="1"/>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="17"/>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="13"/>
+      <c r="F642" s="1"/>
+    </row>
+    <row r="643" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A643" s="14"/>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="13"/>
+      <c r="F644" s="1"/>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="18"/>
+    </row>
+    <row r="646" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A646" s="15"/>
+      <c r="F646" s="8"/>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="16"/>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="16"/>
+      <c r="F648" s="1"/>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="16"/>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="13"/>
+      <c r="F650" s="1"/>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="18"/>
+    </row>
+    <row r="652" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A652" s="15"/>
+      <c r="F652" s="8"/>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="16"/>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="16"/>
+      <c r="F654" s="1"/>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="16"/>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="13"/>
+      <c r="F656" s="1"/>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="17"/>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="13"/>
+      <c r="F658" s="1"/>
+    </row>
+    <row r="659" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A659" s="14"/>
+    </row>
+    <row r="660" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A660" s="13"/>
+      <c r="F660" s="8"/>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="18"/>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="15"/>
+      <c r="F662" s="1"/>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="16"/>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="16"/>
+      <c r="F664" s="1"/>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" s="16"/>
+    </row>
+    <row r="666" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A666" s="16"/>
+      <c r="F666" s="8"/>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" s="13"/>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" s="17"/>
+      <c r="F668" s="1"/>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" s="13"/>
+    </row>
+    <row r="670" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A670" s="19"/>
+      <c r="F670" s="1"/>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" s="13"/>
+    </row>
+    <row r="672" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F672" s="8"/>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" s="13"/>
+    </row>
+    <row r="674" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A674" s="14"/>
+      <c r="F674" s="1"/>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" s="13"/>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" s="18"/>
+      <c r="F676" s="1"/>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" s="13"/>
+    </row>
+    <row r="678" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A678" s="17"/>
+      <c r="F678" s="7"/>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" s="13"/>
+    </row>
+    <row r="680" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A680" s="14"/>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" s="13"/>
+    </row>
+    <row r="682" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A682" s="18"/>
+      <c r="F682" s="8"/>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" s="13"/>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" s="17"/>
+      <c r="F684" s="1"/>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" s="13"/>
+    </row>
+    <row r="686" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A686" s="14"/>
+      <c r="F686" s="1"/>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" s="13"/>
+    </row>
+    <row r="688" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A688" s="18"/>
+      <c r="F688" s="8"/>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" s="13"/>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" s="17"/>
+      <c r="F690" s="1"/>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" s="13"/>
+    </row>
+    <row r="692" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A692" s="14"/>
+      <c r="F692" s="1"/>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" s="13"/>
+    </row>
+    <row r="694" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A694" s="18"/>
+      <c r="F694" s="8"/>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" s="13"/>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" s="18"/>
+      <c r="F696" s="1"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" s="13"/>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" s="17"/>
+      <c r="F698" s="1"/>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" s="13"/>
+    </row>
+    <row r="700" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A700" s="19"/>
+      <c r="F700" s="1"/>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" s="13"/>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F702" s="1"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" s="13"/>
+      <c r="F703" s="1"/>
+    </row>
+    <row r="704" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A704" s="14"/>
+      <c r="F704" s="1"/>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" s="13"/>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" s="18"/>
+      <c r="F706" s="1"/>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" s="13"/>
+    </row>
+    <row r="708" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A708" s="17"/>
+      <c r="F708" s="8"/>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" s="13"/>
+    </row>
+    <row r="710" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A710" s="14"/>
+      <c r="F710" s="4"/>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" s="13"/>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" s="18"/>
+      <c r="F712" s="1"/>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A713" s="15"/>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A714" s="16"/>
+      <c r="F714" s="4"/>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A715" s="16"/>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A716" s="16"/>
+      <c r="F716" s="2"/>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A717" s="16"/>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A718" s="13"/>
+      <c r="F718" s="2"/>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A719" s="17"/>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A720" s="13"/>
+      <c r="F720" s="1"/>
+    </row>
+    <row r="721" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A721" s="14"/>
+    </row>
+    <row r="722" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A722" s="13"/>
+      <c r="F722" s="8"/>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A723" s="18"/>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A724" s="13"/>
+      <c r="F724" s="1"/>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A725" s="18"/>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A726" s="13"/>
+      <c r="F726" s="1"/>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A727" s="17"/>
+    </row>
+    <row r="728" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A728" s="13"/>
+      <c r="F728" s="8"/>
+    </row>
+    <row r="729" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A729" s="14"/>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A730" s="13"/>
+      <c r="F730" s="1"/>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A731" s="18"/>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A732" s="15"/>
+      <c r="F732" s="1"/>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A733" s="16"/>
+    </row>
+    <row r="734" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A734" s="16"/>
+      <c r="F734" s="8"/>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A735" s="13"/>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A736" s="17"/>
+      <c r="F736" s="1"/>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A737" s="13"/>
+    </row>
+    <row r="738" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A738" s="19"/>
+      <c r="F738" s="1"/>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A739" s="13"/>
+    </row>
+    <row r="740" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F740" s="7"/>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A741" s="13"/>
+    </row>
+    <row r="742" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A742" s="14"/>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A743" s="13"/>
+    </row>
+    <row r="744" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A744" s="18"/>
+      <c r="F744" s="8"/>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A745" s="13"/>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A746" s="18"/>
+      <c r="F746" s="1"/>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A747" s="15"/>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A748" s="16"/>
+      <c r="F748" s="1"/>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A749" s="16"/>
+    </row>
+    <row r="750" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A750" s="16"/>
+      <c r="F750" s="8"/>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A751" s="13"/>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A752" s="17"/>
+      <c r="F752" s="1"/>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A753" s="13"/>
+    </row>
+    <row r="754" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A754" s="14"/>
+      <c r="F754" s="1"/>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A755" s="13"/>
+    </row>
+    <row r="756" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A756" s="18"/>
+      <c r="F756" s="8"/>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A757" s="13"/>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A758" s="18"/>
+      <c r="F758" s="1"/>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A759" s="13"/>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A760" s="17"/>
+      <c r="F760" s="1"/>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A761" s="13"/>
+    </row>
+    <row r="762" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A762" s="14"/>
+      <c r="F762" s="8"/>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A763" s="13"/>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A764" s="18"/>
+      <c r="F764" s="1"/>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A765" s="13"/>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A766" s="17"/>
+      <c r="F766" s="1"/>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A767" s="13"/>
+    </row>
+    <row r="768" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A768" s="14"/>
+      <c r="F768" s="1"/>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A769" s="13"/>
+    </row>
+    <row r="770" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A770" s="18"/>
+      <c r="F770" s="8"/>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A771" s="13"/>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A772" s="17"/>
+      <c r="F772" s="1"/>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A773" s="13"/>
+    </row>
+    <row r="774" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A774" s="19"/>
+      <c r="F774" s="1"/>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A775" s="13"/>
+    </row>
+    <row r="776" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F776" s="8"/>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A777" s="13"/>
+    </row>
+    <row r="778" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A778" s="14"/>
+      <c r="F778" s="1"/>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A779" s="13"/>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A780" s="18"/>
+      <c r="F780" s="1"/>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A781" s="13"/>
+    </row>
+    <row r="782" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A782" s="17"/>
+      <c r="F782" s="8"/>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A783" s="13"/>
+    </row>
+    <row r="784" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A784" s="14"/>
+      <c r="F784" s="1"/>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A785" s="13"/>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A786" s="17"/>
+      <c r="F786" s="1"/>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A787" s="13"/>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A788" s="17"/>
+      <c r="F788" s="2"/>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A789" s="13"/>
+    </row>
+    <row r="790" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A790" s="14"/>
+      <c r="F790" s="1"/>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A791" s="13"/>
+    </row>
+    <row r="792" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A792" s="18"/>
+      <c r="F792" s="8"/>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A793" s="13"/>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A794" s="17"/>
+      <c r="F794" s="1"/>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A795" s="13"/>
+    </row>
+    <row r="796" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A796" s="19"/>
+      <c r="F796" s="1"/>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A797" s="13"/>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F798" s="1"/>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A799" s="13"/>
+    </row>
+    <row r="800" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A800" s="14"/>
+      <c r="F800" s="8"/>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A801" s="13"/>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A802" s="18"/>
+      <c r="F802" s="1"/>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A803" s="13"/>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A804" s="24"/>
+      <c r="F804" s="1"/>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A805" s="15"/>
+    </row>
+    <row r="806" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A806" s="16"/>
+      <c r="F806" s="8"/>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A807" s="16"/>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A808" s="16"/>
+      <c r="F808" s="1"/>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A809" s="16"/>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A810" s="16"/>
+      <c r="F810" s="1"/>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A811" s="13"/>
+    </row>
+    <row r="812" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A812" s="24"/>
+      <c r="F812" s="8"/>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A813" s="15"/>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A814" s="16"/>
+      <c r="F814" s="1"/>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A815" s="16"/>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A816" s="16"/>
+      <c r="F816" s="1"/>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A817" s="16"/>
+    </row>
+    <row r="818" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A818" s="13"/>
+      <c r="F818" s="8"/>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A819" s="17"/>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A820" s="13"/>
+      <c r="F820" s="1"/>
+    </row>
+    <row r="821" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A821" s="14"/>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A822" s="13"/>
+      <c r="F822" s="1"/>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A823" s="17"/>
+    </row>
+    <row r="824" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A824" s="13"/>
+      <c r="F824" s="8"/>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A825" s="17"/>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A826" s="13"/>
+      <c r="F826" s="1"/>
+    </row>
+    <row r="827" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A827" s="14"/>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A828" s="13"/>
+      <c r="F828" s="1"/>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A829" s="18"/>
+    </row>
+    <row r="830" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A830" s="15"/>
+      <c r="F830" s="7"/>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A831" s="16"/>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A832" s="16"/>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A833" s="13"/>
+    </row>
+    <row r="834" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A834" s="17"/>
+      <c r="F834" s="8"/>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A835" s="13"/>
+    </row>
+    <row r="836" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A836" s="14"/>
+      <c r="F836" s="1"/>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A837" s="13"/>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A838" s="18"/>
+      <c r="F838" s="1"/>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A839" s="13"/>
+      <c r="F839" s="1"/>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A840" s="17"/>
+      <c r="F840" s="1"/>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A841" s="13"/>
+      <c r="F841" s="1"/>
+    </row>
+    <row r="842" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A842" s="14"/>
+      <c r="F842" s="1"/>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A843" s="13"/>
+      <c r="F843" s="1"/>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A844" s="18"/>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A845" s="13"/>
+      <c r="F845" s="1"/>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A846" s="17"/>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A847" s="13"/>
+      <c r="F847" s="1"/>
+    </row>
+    <row r="848" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A848" s="19"/>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A849" s="13"/>
+      <c r="F849" s="1"/>
+    </row>
+    <row r="851" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A851" s="13"/>
+      <c r="F851" s="8"/>
+    </row>
+    <row r="852" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A852" s="14"/>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A853" s="13"/>
+      <c r="F853" s="1"/>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A854" s="18"/>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A855" s="18"/>
+      <c r="F855" s="1"/>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A856" s="13"/>
+      <c r="F856" s="1"/>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A857" s="17"/>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A858" s="25"/>
+      <c r="F858" s="1"/>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A859" s="26"/>
+      <c r="F859" s="1"/>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A860" s="27"/>
+      <c r="F860" s="1"/>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A861" s="27"/>
+      <c r="F861" s="1"/>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A862" s="28"/>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A863" s="29"/>
+      <c r="F863" s="1"/>
+    </row>
+    <row r="864" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A864" s="30"/>
+    </row>
+    <row r="865" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A865" s="29"/>
+      <c r="F865" s="8"/>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A866" s="31"/>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A867" s="29"/>
+      <c r="F867" s="1"/>
+    </row>
+    <row r="868" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A868" s="30"/>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A869" s="29"/>
+      <c r="F869" s="1"/>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A870" s="31"/>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A871" s="18"/>
+      <c r="F871" s="1"/>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A872" s="18"/>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A873" s="17"/>
+      <c r="F873" s="1"/>
+    </row>
+    <row r="875" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F875" s="8"/>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F877" s="1"/>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F879" s="1"/>
+    </row>
+    <row r="881" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F881" s="1"/>
+    </row>
+    <row r="883" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F883" s="8"/>
+    </row>
+    <row r="885" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F885" s="1"/>
+    </row>
+    <row r="887" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F887" s="1"/>
+    </row>
+    <row r="889" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F889" s="8"/>
+    </row>
+    <row r="891" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F891" s="1"/>
+    </row>
+    <row r="893" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F893" s="1"/>
+    </row>
+    <row r="895" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F895" s="8"/>
+    </row>
+    <row r="897" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F897" s="1"/>
+    </row>
+    <row r="899" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F899" s="1"/>
+    </row>
+    <row r="901" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F901" s="8"/>
+    </row>
+    <row r="903" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F903" s="1"/>
+    </row>
+    <row r="905" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F905" s="1"/>
+    </row>
+    <row r="907" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F907" s="1"/>
+    </row>
+    <row r="909" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F909" s="8"/>
+    </row>
+    <row r="911" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F911" s="1"/>
+    </row>
+    <row r="913" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F913" s="1"/>
+    </row>
+    <row r="915" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F915" s="1"/>
+    </row>
+    <row r="917" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F917" s="1"/>
+    </row>
+    <row r="919" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F919" s="8"/>
+    </row>
+    <row r="921" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F921" s="1"/>
+    </row>
+    <row r="923" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F923" s="1"/>
+    </row>
+    <row r="925" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F925" s="7"/>
+    </row>
+    <row r="929" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F929" s="8"/>
+    </row>
+    <row r="931" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F931" s="1"/>
+    </row>
+    <row r="933" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F933" s="1"/>
+    </row>
+    <row r="934" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F934" s="1"/>
+    </row>
+    <row r="935" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F935" s="1"/>
+    </row>
+    <row r="936" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F936" s="1"/>
+    </row>
+    <row r="938" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F938" s="1"/>
+    </row>
+    <row r="940" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F940" s="1"/>
+    </row>
+    <row r="942" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F942" s="8"/>
+    </row>
+    <row r="944" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F944" s="1"/>
+    </row>
+    <row r="946" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F946" s="1"/>
+    </row>
+    <row r="948" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F948" s="8"/>
+    </row>
+    <row r="950" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F950" s="1"/>
+    </row>
+    <row r="952" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F952" s="1"/>
+    </row>
+    <row r="954" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F954" s="8"/>
+    </row>
+    <row r="956" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F956" s="1"/>
+    </row>
+    <row r="958" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F958" s="1"/>
+    </row>
+    <row r="960" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F960" s="8"/>
+    </row>
+    <row r="962" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F962" s="1"/>
+    </row>
+    <row r="964" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F964" s="1"/>
+    </row>
+    <row r="966" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F966" s="7"/>
+    </row>
+    <row r="970" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F970" s="8"/>
+    </row>
+    <row r="972" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F972" s="1"/>
+    </row>
+    <row r="974" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F974" s="1"/>
+    </row>
+    <row r="976" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F976" s="8"/>
+    </row>
+    <row r="978" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F978" s="1"/>
+    </row>
+    <row r="980" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F980" s="1"/>
+    </row>
+    <row r="981" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F981" s="1"/>
+    </row>
+    <row r="982" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F982" s="1"/>
+    </row>
+    <row r="984" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F984" s="1"/>
+    </row>
+    <row r="986" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F986" s="1"/>
+    </row>
+    <row r="987" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F987" s="1"/>
+    </row>
+    <row r="988" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F988" s="1"/>
+    </row>
+    <row r="989" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F989" s="1"/>
+    </row>
+    <row r="991" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F991" s="1"/>
+    </row>
+    <row r="993" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F993" s="1"/>
+    </row>
+    <row r="995" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F995" s="8"/>
+    </row>
+    <row r="997" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F997" s="1"/>
+    </row>
+    <row r="999" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F999" s="1"/>
+    </row>
+    <row r="1001" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1001" s="8"/>
+    </row>
+    <row r="1003" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1003" s="1"/>
+    </row>
+    <row r="1005" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1005" s="1"/>
+    </row>
+    <row r="1007" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1007" s="8"/>
+    </row>
+    <row r="1009" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1009" s="1"/>
+    </row>
+    <row r="1011" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1011" s="1"/>
+    </row>
+    <row r="1013" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1013" s="8"/>
+    </row>
+    <row r="1015" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1015" s="1"/>
+    </row>
+    <row r="1017" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1017" s="1"/>
+    </row>
+    <row r="1019" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1019" s="8"/>
+    </row>
+    <row r="1021" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1021" s="1"/>
+    </row>
+    <row r="1023" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1023" s="1"/>
+    </row>
+    <row r="1025" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1025" s="8"/>
+    </row>
+    <row r="1027" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1027" s="1"/>
+    </row>
+    <row r="1029" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1029" s="1"/>
+    </row>
+    <row r="1031" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1031" s="8"/>
+    </row>
+    <row r="1033" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1033" s="1"/>
+    </row>
+    <row r="1035" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1035" s="1"/>
+    </row>
+    <row r="1036" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1036" s="1"/>
+    </row>
+    <row r="1038" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1038" s="1"/>
+    </row>
+    <row r="1040" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1040" s="1"/>
+    </row>
+    <row r="1042" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1042" s="8"/>
+    </row>
+    <row r="1044" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1044" s="1"/>
+    </row>
+    <row r="1046" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1046" s="1"/>
+    </row>
+    <row r="1048" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1048" s="8"/>
+    </row>
+    <row r="1050" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1050" s="1"/>
+    </row>
+    <row r="1052" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1052" s="1"/>
+    </row>
+    <row r="1054" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1054" s="1"/>
+    </row>
+    <row r="1056" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1056" s="1"/>
+    </row>
+    <row r="1058" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1058" s="8"/>
+    </row>
+    <row r="1060" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1060" s="1"/>
+    </row>
+    <row r="1062" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1062" s="1"/>
+    </row>
+    <row r="1063" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1063" s="1"/>
+    </row>
+    <row r="1064" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1064" s="1"/>
+    </row>
+    <row r="1066" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1066" s="1"/>
+    </row>
+    <row r="1068" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1068" s="1"/>
+    </row>
+    <row r="1069" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1069" s="1"/>
+    </row>
+    <row r="1070" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1070" s="1"/>
+    </row>
+    <row r="1072" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1072" s="1"/>
+    </row>
+    <row r="1074" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1074" s="8"/>
+    </row>
+    <row r="1076" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1076" s="1"/>
+    </row>
+    <row r="1078" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1078" s="1"/>
+    </row>
+    <row r="1079" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1079" s="1"/>
+    </row>
+    <row r="1080" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1080" s="1"/>
+    </row>
+    <row r="1081" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1081" s="1"/>
+    </row>
+    <row r="1083" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1083" s="1"/>
+    </row>
+    <row r="1085" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1085" s="7"/>
+    </row>
+    <row r="1089" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1089" s="8"/>
+    </row>
+    <row r="1091" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1091" s="1"/>
+    </row>
+    <row r="1093" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1093" s="1"/>
+    </row>
+    <row r="1095" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1095" s="8"/>
+    </row>
+    <row r="1097" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1097" s="1"/>
+    </row>
+    <row r="1099" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1099" s="1"/>
+    </row>
+    <row r="1101" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1101" s="8"/>
+    </row>
+    <row r="1103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1103" s="1"/>
+    </row>
+    <row r="1105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1105" s="1"/>
+    </row>
+    <row r="1107" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1107" s="8"/>
+    </row>
+    <row r="1109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1109" s="1"/>
+    </row>
+    <row r="1111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1111" s="1"/>
+    </row>
+    <row r="1113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1113" s="1"/>
+    </row>
+    <row r="1115" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1115" s="7"/>
+    </row>
+    <row r="1119" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1119" s="8"/>
+    </row>
+    <row r="1121" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1121" s="1"/>
+    </row>
+    <row r="1123" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1123" s="1"/>
+    </row>
+    <row r="1125" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1125" s="8"/>
+    </row>
+    <row r="1127" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1127" s="1"/>
+    </row>
+    <row r="1129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1129" s="1"/>
+    </row>
+    <row r="1130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1130" s="1"/>
+    </row>
+    <row r="1131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1131" s="1"/>
+    </row>
+    <row r="1132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1132" s="1"/>
+    </row>
+    <row r="1134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1134" s="1"/>
+    </row>
+    <row r="1136" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1136" s="8"/>
+    </row>
+    <row r="1138" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1138" s="1"/>
+    </row>
+    <row r="1140" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1140" s="1"/>
+    </row>
+    <row r="1142" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1142" s="1"/>
+    </row>
+    <row r="1144" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1144" s="8"/>
+    </row>
+    <row r="1146" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1146" s="1"/>
+    </row>
+    <row r="1148" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1148" s="1"/>
+    </row>
+    <row r="1149" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1149" s="1"/>
+    </row>
+    <row r="1151" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1151" s="1"/>
+    </row>
+    <row r="1153" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1153" s="7"/>
+    </row>
+    <row r="1157" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1157" s="8"/>
+    </row>
+    <row r="1159" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1159" s="1"/>
+    </row>
+    <row r="1161" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1161" s="1"/>
+    </row>
+    <row r="1163" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1163" s="1"/>
+    </row>
+    <row r="1164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1164" s="1"/>
+    </row>
+    <row r="1165" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1165" s="1"/>
+    </row>
+    <row r="1167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1167" s="1"/>
+    </row>
+    <row r="1169" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1169" s="8"/>
+    </row>
+    <row r="1171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1171" s="1"/>
+    </row>
+    <row r="1173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1173" s="1"/>
+    </row>
+    <row r="1175" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1175" s="1"/>
+    </row>
+    <row r="1177" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1177" s="8"/>
+    </row>
+    <row r="1179" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1179" s="1"/>
+    </row>
+    <row r="1181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1181" s="1"/>
+    </row>
+    <row r="1183" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1183" s="8"/>
+    </row>
+    <row r="1185" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1185" s="1"/>
+    </row>
+    <row r="1187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1187" s="1"/>
+    </row>
+    <row r="1189" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1189" s="7"/>
+    </row>
+    <row r="1193" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1193" s="8"/>
+    </row>
+    <row r="1195" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1195" s="1"/>
+    </row>
+    <row r="1197" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1197" s="1"/>
+    </row>
+    <row r="1199" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1199" s="8"/>
+    </row>
+    <row r="1201" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1201" s="1"/>
+    </row>
+    <row r="1203" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1203" s="1"/>
+    </row>
+    <row r="1205" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1205" s="8"/>
+    </row>
+    <row r="1207" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1207" s="1"/>
+    </row>
+    <row r="1209" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1209" s="1"/>
+    </row>
+    <row r="1211" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1211" s="7"/>
+    </row>
+    <row r="1215" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1215" s="8"/>
+    </row>
+    <row r="1217" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1217" s="1"/>
+    </row>
+    <row r="1219" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1219" s="5"/>
+    </row>
+    <row r="1221" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1221" s="1"/>
+    </row>
+    <row r="1222" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1222" s="1"/>
+    </row>
+    <row r="1223" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1223" s="1"/>
+    </row>
+    <row r="1224" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1224" s="1"/>
+    </row>
+    <row r="1225" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1225" s="1"/>
+    </row>
+    <row r="1227" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1227" s="5"/>
+    </row>
+    <row r="1229" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1229" s="1"/>
+    </row>
+    <row r="1230" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1230" s="1"/>
+    </row>
+    <row r="1231" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1231" s="1"/>
+    </row>
+    <row r="1232" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1232" s="1"/>
+    </row>
+    <row r="1234" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1234" s="1"/>
+    </row>
+    <row r="1236" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1236" s="8"/>
+    </row>
+    <row r="1238" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1238" s="1"/>
+    </row>
+    <row r="1240" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1240" s="1"/>
+    </row>
+    <row r="1242" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1242" s="8"/>
+    </row>
+    <row r="1244" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1244" s="1"/>
+    </row>
+    <row r="1246" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1246" s="1"/>
+    </row>
+    <row r="1247" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1247" s="1"/>
+    </row>
+    <row r="1249" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1249" s="1"/>
+    </row>
+    <row r="1251" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1251" s="8"/>
+    </row>
+    <row r="1253" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1253" s="1"/>
+    </row>
+    <row r="1255" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1255" s="1"/>
+    </row>
+    <row r="1257" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1257" s="8"/>
+    </row>
+    <row r="1259" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1259" s="1"/>
+    </row>
+    <row r="1261" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1261" s="1"/>
+    </row>
+    <row r="1263" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1263" s="7"/>
+    </row>
+    <row r="1267" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1267" s="8"/>
+    </row>
+    <row r="1269" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1269" s="1"/>
+    </row>
+    <row r="1270" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1270" s="1"/>
+    </row>
+    <row r="1272" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1272" s="1"/>
+    </row>
+    <row r="1274" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1274" s="6"/>
+    </row>
+    <row r="1275" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1275" s="9"/>
+    </row>
+    <row r="1276" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1276" s="9"/>
+    </row>
+    <row r="1277" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1277" s="9"/>
+    </row>
+    <row r="1279" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1279" s="10"/>
+    </row>
+    <row r="1281" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1281" s="9"/>
+    </row>
+    <row r="1283" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1283" s="10"/>
+    </row>
+    <row r="1285" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1285" s="9"/>
+    </row>
+    <row r="1286" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1286" s="1"/>
+    </row>
+    <row r="1287" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1287" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -24,6 +24,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,12 +347,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -27,14 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
-  <si>
-    <t>hi</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,31 +340,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addierohrbach/GitHub/ChatFAQs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Petersen\Documents\GitHub\ChatFAQs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC68E3-BACF-48BF-9601-BB8FE6FE41D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1428" yWindow="-72" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,18 +28,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>What new enhancements are available in NM MyChart (web)?</t>
+  </si>
+  <si>
+    <t>&lt;h2 id="RE_enhancements"&gt;What new enhancements are available in NM MyChart (web)?&lt;/h2&gt;&lt;p&gt;&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Include certain attachments, like photos and video, on messages sent to your provider.&lt;/li&gt;&lt;li&gt;Complete the Pre Check-In process from home, saving you time when you arrive for your appointment. You can electronically sign documents, update your demographics information, add or verify insurance (including submitting insurance card images), add credit card information to pay outstanding balances, pre-payments, or authorize copays, and update information about your medical history (including your medications, allergies, and preferred pharmacy).&lt;/li&gt;&lt;li&gt;View orders and tests placed by your physician.&lt;/li&gt;&lt;li&gt;Request records and view copies of information released from Medical Records.&lt;/li&gt;&lt;li&gt;Patients who are pregnant can pre-register for their day of delivery to save time when arriving at the hospital.&lt;/li&gt;&lt;li&gt;Link your NM MyChart account to other organizations via Happy Together to view clinical information from another organization in your NM MyChart account. &lt;/li&gt;&lt;li&gt;Allow non-NM physicians to review your NM MyChart information by generating a Share Everywhere code. &lt;/li&gt;&lt;li&gt;Utilize the Pay as Guest page to pay bills without needing to log into your MyChart account. &lt;/li&gt;&lt;li&gt;Keep your clinicians up-to-date on your End-of-Life / Advance Care Planning decisions by uploading the associated documents in our Advance Care Planning activity.&lt;/li&gt;&lt;li&gt;Keep track of all of your documents in the My Documents section. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDF004F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFDF004F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF606060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,20 +159,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3822F271-4080-46A6-BA12-78AAF030AE6F}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -339,15 +546,3610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1287"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+    </row>
+    <row r="62" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+    </row>
+    <row r="68" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+    </row>
+    <row r="74" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="18"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="86" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="17"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+    </row>
+    <row r="94" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="17"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="102" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="17"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+    </row>
+    <row r="108" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="18"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="17"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+    </row>
+    <row r="120" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="18"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+    </row>
+    <row r="126" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="19"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+    </row>
+    <row r="130" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="18"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="17"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+    </row>
+    <row r="136" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="18"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="18"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+    </row>
+    <row r="144" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="18"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="17"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+    </row>
+    <row r="150" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="18"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="17"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="17"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+    </row>
+    <row r="158" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="18"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="17"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+    </row>
+    <row r="164" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A164" s="19"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+    </row>
+    <row r="168" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="18"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="18"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="21"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="17"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+    </row>
+    <row r="177" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="18"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="17"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="17"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+    </row>
+    <row r="185" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="18"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="17"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+    </row>
+    <row r="191" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="18"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="18"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="17"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="199" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="14"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="18"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="17"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="205" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="14"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="18"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="18"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="13"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="17"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="13"/>
+    </row>
+    <row r="215" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="14"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="21"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="18"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="13"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="17"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="13"/>
+    </row>
+    <row r="223" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="14"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="18"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="18"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="17"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="14"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="13"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="18"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="13"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="17"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+    </row>
+    <row r="237" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="14"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="13"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="18"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="13"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="18"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="13"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="17"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="13"/>
+    </row>
+    <row r="245" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="14"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="13"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="18"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="13"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="17"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="13"/>
+    </row>
+    <row r="251" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A251" s="14"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="18"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="17"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" s="13"/>
+    </row>
+    <row r="257" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A257" s="14"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" s="13"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" s="18"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" s="13"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" s="17"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+    </row>
+    <row r="263" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A263" s="19"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+    </row>
+    <row r="267" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A267" s="14"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" s="18"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" s="17"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+    </row>
+    <row r="273" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A273" s="14"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="18"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="17"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+    </row>
+    <row r="279" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A279" s="14"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="18"/>
+    </row>
+    <row r="282" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A282" s="13"/>
+      <c r="F282" s="7"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="18"/>
+    </row>
+    <row r="284" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A284" s="13"/>
+      <c r="F284" s="7"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="18"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="13"/>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="17"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="17"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="17"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="13"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="17"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="13"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A293" s="14"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="13"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="23"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="18"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="13"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="23"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="21"/>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="21"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="13"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="17"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="13"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A307" s="14"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="13"/>
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="18"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="13"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="17"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="13"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A313" s="14"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="13"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="18"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="13"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="17"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="13"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A319" s="14"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="13"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="18"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="13"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="17"/>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="13"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A325" s="19"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="13"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="13"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A329" s="14"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="13"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="18"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="13"/>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="17"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="13"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A335" s="14"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="13"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="18"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="13"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="17"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="13"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A341" s="14"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="13"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="18"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="17"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="13"/>
+    </row>
+    <row r="347" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A347" s="14"/>
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="13"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="18"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="13"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="17"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="13"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="17"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="13"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A355" s="14"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="13"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="18"/>
+      <c r="F357" s="1"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="13"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="17"/>
+      <c r="F359" s="2"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="13"/>
+      <c r="F360" s="1"/>
+    </row>
+    <row r="361" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A361" s="14"/>
+      <c r="F361" s="1"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="13"/>
+      <c r="F362" s="1"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="18"/>
+      <c r="F363" s="1"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="13"/>
+      <c r="F364" s="1"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="17"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="13"/>
+      <c r="F366" s="2"/>
+    </row>
+    <row r="367" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A367" s="14"/>
+      <c r="F367" s="1"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="13"/>
+      <c r="F368" s="1"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="18"/>
+      <c r="F369" s="1"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="13"/>
+      <c r="F370" s="1"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="18"/>
+      <c r="F371" s="1"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="13"/>
+      <c r="F372" s="1"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="21"/>
+      <c r="F373" s="1"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="13"/>
+      <c r="F374" s="1"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="17"/>
+      <c r="F375" s="1"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="13"/>
+      <c r="F376" s="1"/>
+    </row>
+    <row r="377" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A377" s="14"/>
+      <c r="F377" s="1"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="13"/>
+      <c r="F378" s="1"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="18"/>
+      <c r="F379" s="1"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="13"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="18"/>
+      <c r="F381" s="2"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="13"/>
+      <c r="F382" s="1"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="17"/>
+      <c r="F383" s="1"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="13"/>
+      <c r="F384" s="1"/>
+    </row>
+    <row r="385" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A385" s="14"/>
+      <c r="F385" s="1"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="13"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="18"/>
+      <c r="F387" s="2"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="13"/>
+      <c r="F388" s="1"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="17"/>
+      <c r="F389" s="1"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="13"/>
+      <c r="F390" s="1"/>
+    </row>
+    <row r="391" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A391" s="14"/>
+      <c r="F391" s="1"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="13"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="18"/>
+      <c r="F393" s="2"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="13"/>
+      <c r="F394" s="1"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="17"/>
+      <c r="F395" s="1"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="13"/>
+      <c r="F396" s="1"/>
+    </row>
+    <row r="397" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A397" s="14"/>
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="13"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="18"/>
+      <c r="F399" s="2"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="13"/>
+      <c r="F400" s="1"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="17"/>
+      <c r="F401" s="1"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="13"/>
+      <c r="F402" s="1"/>
+    </row>
+    <row r="403" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A403" s="14"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="13"/>
+      <c r="F404" s="2"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="18"/>
+      <c r="F405" s="1"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="13"/>
+      <c r="F406" s="1"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="17"/>
+      <c r="F407" s="1"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="13"/>
+      <c r="F408" s="1"/>
+    </row>
+    <row r="409" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A409" s="14"/>
+      <c r="F409" s="1"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="13"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="18"/>
+      <c r="F411" s="2"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="13"/>
+      <c r="F412" s="1"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="17"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="13"/>
+    </row>
+    <row r="415" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A415" s="19"/>
+    </row>
+    <row r="416" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A416" s="13"/>
+      <c r="F416" s="7"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="13"/>
+    </row>
+    <row r="419" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A419" s="14"/>
+    </row>
+    <row r="420" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A420" s="13"/>
+      <c r="F420" s="8"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="18"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="15"/>
+      <c r="F422" s="1"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="16"/>
+      <c r="F423" s="1"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="16"/>
+      <c r="F424" s="1"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="16"/>
+      <c r="F425" s="1"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="16"/>
+      <c r="F426" s="1"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="16"/>
+      <c r="F427" s="1"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="16"/>
+      <c r="F428" s="1"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="13"/>
+      <c r="F429" s="1"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="18"/>
+      <c r="F430" s="1"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="13"/>
+      <c r="F431" s="1"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="18"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="13"/>
+      <c r="F433" s="1"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="17"/>
+    </row>
+    <row r="435" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A435" s="13"/>
+      <c r="F435" s="8"/>
+    </row>
+    <row r="436" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A436" s="14"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="13"/>
+      <c r="F437" s="1"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="18"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="15"/>
+      <c r="F439" s="1"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="16"/>
+      <c r="F440" s="1"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" s="20"/>
+      <c r="F441" s="1"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="15"/>
+      <c r="F442" s="1"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="16"/>
+      <c r="F443" s="1"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="16"/>
+      <c r="F444" s="1"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" s="16"/>
+      <c r="F445" s="1"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" s="16"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" s="13"/>
+      <c r="F447" s="1"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="17"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" s="13"/>
+      <c r="F449" s="1"/>
+    </row>
+    <row r="450" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A450" s="14"/>
+      <c r="F450" s="1"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="13"/>
+      <c r="F451" s="1"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" s="18"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="13"/>
+      <c r="F453" s="1"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" s="17"/>
+    </row>
+    <row r="455" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A455" s="13"/>
+      <c r="F455" s="7"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" s="18"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" s="13"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" s="17"/>
+    </row>
+    <row r="459" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A459" s="13"/>
+      <c r="F459" s="8"/>
+    </row>
+    <row r="460" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A460" s="14"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" s="13"/>
+      <c r="F461" s="1"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" s="18"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" s="13"/>
+      <c r="F463" s="1"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" s="17"/>
+      <c r="F464" s="1"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="13"/>
+      <c r="F465" s="1"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" s="17"/>
+      <c r="F466" s="1"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="13"/>
+      <c r="F467" s="1"/>
+    </row>
+    <row r="468" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A468" s="14"/>
+      <c r="F468" s="1"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" s="13"/>
+      <c r="F469" s="1"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="17"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" s="13"/>
+      <c r="F471" s="1"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" s="17"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" s="13"/>
+      <c r="F473" s="1"/>
+    </row>
+    <row r="474" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A474" s="14"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" s="13"/>
+      <c r="F475" s="1"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" s="18"/>
+    </row>
+    <row r="477" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A477" s="13"/>
+      <c r="F477" s="8"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" s="17"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" s="13"/>
+      <c r="F479" s="1"/>
+    </row>
+    <row r="480" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A480" s="14"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A481" s="13"/>
+      <c r="F481" s="1"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" s="18"/>
+    </row>
+    <row r="483" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A483" s="13"/>
+      <c r="F483" s="8"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" s="17"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A485" s="13"/>
+      <c r="F485" s="1"/>
+    </row>
+    <row r="486" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A486" s="14"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A487" s="13"/>
+      <c r="F487" s="1"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A488" s="18"/>
+    </row>
+    <row r="489" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F489" s="8"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" s="18"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" s="13"/>
+      <c r="F491" s="1"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" s="17"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A493" s="13"/>
+      <c r="F493" s="1"/>
+    </row>
+    <row r="494" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A494" s="14"/>
+      <c r="F494" s="1"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A495" s="13"/>
+      <c r="F495" s="1"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" s="18"/>
+      <c r="F496" s="1"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F497" s="1"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="18"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="13"/>
+      <c r="F499" s="1"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A500" s="18"/>
+    </row>
+    <row r="501" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A501" s="13"/>
+      <c r="F501" s="8"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="17"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" s="13"/>
+      <c r="F503" s="1"/>
+    </row>
+    <row r="504" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A504" s="14"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" s="13"/>
+      <c r="F505" s="1"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" s="18"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A507" s="13"/>
+      <c r="F507" s="1"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="17"/>
+    </row>
+    <row r="509" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A509" s="13"/>
+      <c r="F509" s="8"/>
+    </row>
+    <row r="510" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A510" s="19"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="13"/>
+      <c r="F511" s="1"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A513" s="13"/>
+      <c r="F513" s="1"/>
+    </row>
+    <row r="514" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A514" s="14"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A515" s="13"/>
+      <c r="F515" s="1"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A516" s="18"/>
+    </row>
+    <row r="517" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A517" s="15"/>
+      <c r="F517" s="8"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A518" s="16"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="16"/>
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A520" s="16"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" s="16"/>
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" s="13"/>
+    </row>
+    <row r="523" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A523" s="18"/>
+      <c r="F523" s="8"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="13"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="17"/>
+      <c r="F525" s="1"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="13"/>
+    </row>
+    <row r="527" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A527" s="14"/>
+      <c r="F527" s="1"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="13"/>
+      <c r="F528" s="1"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A529" s="18"/>
+      <c r="F529" s="1"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="13"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A531" s="17"/>
+      <c r="F531" s="1"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="13"/>
+    </row>
+    <row r="533" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A533" s="14"/>
+      <c r="F533" s="1"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="13"/>
+    </row>
+    <row r="535" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A535" s="18"/>
+      <c r="F535" s="8"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A536" s="13"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="17"/>
+      <c r="F537" s="1"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="13"/>
+    </row>
+    <row r="539" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A539" s="14"/>
+      <c r="F539" s="1"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A540" s="13"/>
+    </row>
+    <row r="541" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A541" s="18"/>
+      <c r="F541" s="7"/>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A542" s="13"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A543" s="17"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A544" s="13"/>
+    </row>
+    <row r="545" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A545" s="14"/>
+      <c r="F545" s="8"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A546" s="13"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="18"/>
+      <c r="F547" s="1"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="13"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A549" s="17"/>
+      <c r="F549" s="1"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A550" s="13"/>
+    </row>
+    <row r="551" spans="1:6" ht="31.2" x14ac:dyDescent="0.45">
+      <c r="A551" s="19"/>
+      <c r="F551" s="8"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A552" s="13"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F553" s="1"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A554" s="13"/>
+    </row>
+    <row r="555" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A555" s="14"/>
+      <c r="F555" s="1"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="13"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="18"/>
+      <c r="F557" s="1"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="13"/>
+    </row>
+    <row r="559" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A559" s="17"/>
+      <c r="F559" s="8"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A560" s="13"/>
+    </row>
+    <row r="561" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A561" s="14"/>
+      <c r="F561" s="1"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A562" s="13"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="18"/>
+      <c r="F563" s="1"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="15"/>
+    </row>
+    <row r="565" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A565" s="16"/>
+      <c r="F565" s="8"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A566" s="16"/>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A567" s="16"/>
+      <c r="F567" s="1"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A568" s="13"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A569" s="18"/>
+      <c r="F569" s="1"/>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A570" s="13"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A571" s="18"/>
+      <c r="F571" s="1"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A572" s="18"/>
+    </row>
+    <row r="573" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A573" s="18"/>
+      <c r="F573" s="8"/>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A574" s="18"/>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A575" s="13"/>
+      <c r="F575" s="1"/>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A576" s="18"/>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A577" s="13"/>
+      <c r="F577" s="1"/>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A578" s="17"/>
+    </row>
+    <row r="579" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A579" s="13"/>
+      <c r="F579" s="7"/>
+    </row>
+    <row r="580" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A580" s="14"/>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A581" s="13"/>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A582" s="18"/>
+    </row>
+    <row r="583" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A583" s="13"/>
+      <c r="F583" s="8"/>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A584" s="17"/>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A585" s="13"/>
+      <c r="F585" s="1"/>
+    </row>
+    <row r="586" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A586" s="14"/>
+      <c r="F586" s="1"/>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A587" s="13"/>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A588" s="18"/>
+      <c r="F588" s="2"/>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A589" s="13"/>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A590" s="17"/>
+      <c r="F590" s="1"/>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A591" s="13"/>
+    </row>
+    <row r="592" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A592" s="14"/>
+      <c r="F592" s="8"/>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A593" s="13"/>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A594" s="18"/>
+      <c r="F594" s="1"/>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A595" s="13"/>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A596" s="17"/>
+      <c r="F596" s="1"/>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A597" s="13"/>
+    </row>
+    <row r="598" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A598" s="14"/>
+      <c r="F598" s="1"/>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A599" s="13"/>
+    </row>
+    <row r="600" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A600" s="18"/>
+      <c r="F600" s="8"/>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A601" s="13"/>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A602" s="17"/>
+      <c r="F602" s="1"/>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A603" s="13"/>
+    </row>
+    <row r="604" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A604" s="14"/>
+      <c r="F604" s="1"/>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A605" s="13"/>
+    </row>
+    <row r="606" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A606" s="18"/>
+      <c r="F606" s="8"/>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A607" s="13"/>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A608" s="17"/>
+      <c r="F608" s="1"/>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A609" s="13"/>
+    </row>
+    <row r="610" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A610" s="14"/>
+      <c r="F610" s="1"/>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A611" s="13"/>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A612" s="18"/>
+      <c r="F612" s="1"/>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A613" s="13"/>
+    </row>
+    <row r="614" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A614" s="17"/>
+      <c r="F614" s="8"/>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A615" s="13"/>
+    </row>
+    <row r="616" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A616" s="14"/>
+      <c r="F616" s="1"/>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A617" s="13"/>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A618" s="18"/>
+      <c r="F618" s="1"/>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A619" s="15"/>
+    </row>
+    <row r="620" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A620" s="16"/>
+      <c r="F620" s="8"/>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A621" s="16"/>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A622" s="13"/>
+      <c r="F622" s="1"/>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A623" s="18"/>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A624" s="13"/>
+      <c r="F624" s="1"/>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A625" s="17"/>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A626" s="13"/>
+      <c r="F626" s="3"/>
+    </row>
+    <row r="627" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A627" s="14"/>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A628" s="13"/>
+      <c r="F628" s="1"/>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A629" s="18"/>
+    </row>
+    <row r="630" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A630" s="13"/>
+      <c r="F630" s="8"/>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A631" s="17"/>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A632" s="13"/>
+      <c r="F632" s="2"/>
+    </row>
+    <row r="633" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A633" s="14"/>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A634" s="13"/>
+      <c r="F634" s="1"/>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A635" s="18"/>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A636" s="13"/>
+      <c r="F636" s="1"/>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A637" s="18"/>
+    </row>
+    <row r="638" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A638" s="13"/>
+      <c r="F638" s="8"/>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A639" s="18"/>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A640" s="13"/>
+      <c r="F640" s="1"/>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A641" s="17"/>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A642" s="13"/>
+      <c r="F642" s="1"/>
+    </row>
+    <row r="643" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A643" s="14"/>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A644" s="13"/>
+      <c r="F644" s="1"/>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A645" s="18"/>
+    </row>
+    <row r="646" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A646" s="15"/>
+      <c r="F646" s="8"/>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A647" s="16"/>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A648" s="16"/>
+      <c r="F648" s="1"/>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A649" s="16"/>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A650" s="13"/>
+      <c r="F650" s="1"/>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A651" s="18"/>
+    </row>
+    <row r="652" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A652" s="15"/>
+      <c r="F652" s="8"/>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A653" s="16"/>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A654" s="16"/>
+      <c r="F654" s="1"/>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A655" s="16"/>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A656" s="13"/>
+      <c r="F656" s="1"/>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A657" s="17"/>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A658" s="13"/>
+      <c r="F658" s="1"/>
+    </row>
+    <row r="659" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A659" s="14"/>
+    </row>
+    <row r="660" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A660" s="13"/>
+      <c r="F660" s="8"/>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A661" s="18"/>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A662" s="15"/>
+      <c r="F662" s="1"/>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A663" s="16"/>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A664" s="16"/>
+      <c r="F664" s="1"/>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A665" s="16"/>
+    </row>
+    <row r="666" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A666" s="16"/>
+      <c r="F666" s="8"/>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A667" s="13"/>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A668" s="17"/>
+      <c r="F668" s="1"/>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A669" s="13"/>
+    </row>
+    <row r="670" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A670" s="19"/>
+      <c r="F670" s="1"/>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A671" s="13"/>
+    </row>
+    <row r="672" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F672" s="8"/>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" s="13"/>
+    </row>
+    <row r="674" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A674" s="14"/>
+      <c r="F674" s="1"/>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A675" s="13"/>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A676" s="18"/>
+      <c r="F676" s="1"/>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A677" s="13"/>
+    </row>
+    <row r="678" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A678" s="17"/>
+      <c r="F678" s="7"/>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A679" s="13"/>
+    </row>
+    <row r="680" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A680" s="14"/>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A681" s="13"/>
+    </row>
+    <row r="682" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A682" s="18"/>
+      <c r="F682" s="8"/>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A683" s="13"/>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A684" s="17"/>
+      <c r="F684" s="1"/>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A685" s="13"/>
+    </row>
+    <row r="686" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A686" s="14"/>
+      <c r="F686" s="1"/>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A687" s="13"/>
+    </row>
+    <row r="688" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A688" s="18"/>
+      <c r="F688" s="8"/>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A689" s="13"/>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A690" s="17"/>
+      <c r="F690" s="1"/>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A691" s="13"/>
+    </row>
+    <row r="692" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A692" s="14"/>
+      <c r="F692" s="1"/>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A693" s="13"/>
+    </row>
+    <row r="694" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A694" s="18"/>
+      <c r="F694" s="8"/>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A695" s="13"/>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A696" s="18"/>
+      <c r="F696" s="1"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A697" s="13"/>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A698" s="17"/>
+      <c r="F698" s="1"/>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A699" s="13"/>
+    </row>
+    <row r="700" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A700" s="19"/>
+      <c r="F700" s="1"/>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A701" s="13"/>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F702" s="1"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A703" s="13"/>
+      <c r="F703" s="1"/>
+    </row>
+    <row r="704" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A704" s="14"/>
+      <c r="F704" s="1"/>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A705" s="13"/>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A706" s="18"/>
+      <c r="F706" s="1"/>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A707" s="13"/>
+    </row>
+    <row r="708" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A708" s="17"/>
+      <c r="F708" s="8"/>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A709" s="13"/>
+    </row>
+    <row r="710" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A710" s="14"/>
+      <c r="F710" s="4"/>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A711" s="13"/>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A712" s="18"/>
+      <c r="F712" s="1"/>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A713" s="15"/>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A714" s="16"/>
+      <c r="F714" s="4"/>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A715" s="16"/>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A716" s="16"/>
+      <c r="F716" s="2"/>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A717" s="16"/>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A718" s="13"/>
+      <c r="F718" s="2"/>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A719" s="17"/>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A720" s="13"/>
+      <c r="F720" s="1"/>
+    </row>
+    <row r="721" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A721" s="14"/>
+    </row>
+    <row r="722" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A722" s="13"/>
+      <c r="F722" s="8"/>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A723" s="18"/>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A724" s="13"/>
+      <c r="F724" s="1"/>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A725" s="18"/>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A726" s="13"/>
+      <c r="F726" s="1"/>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A727" s="17"/>
+    </row>
+    <row r="728" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A728" s="13"/>
+      <c r="F728" s="8"/>
+    </row>
+    <row r="729" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A729" s="14"/>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A730" s="13"/>
+      <c r="F730" s="1"/>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A731" s="18"/>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A732" s="15"/>
+      <c r="F732" s="1"/>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A733" s="16"/>
+    </row>
+    <row r="734" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A734" s="16"/>
+      <c r="F734" s="8"/>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A735" s="13"/>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A736" s="17"/>
+      <c r="F736" s="1"/>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A737" s="13"/>
+    </row>
+    <row r="738" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A738" s="19"/>
+      <c r="F738" s="1"/>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A739" s="13"/>
+    </row>
+    <row r="740" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F740" s="7"/>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A741" s="13"/>
+    </row>
+    <row r="742" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A742" s="14"/>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A743" s="13"/>
+    </row>
+    <row r="744" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A744" s="18"/>
+      <c r="F744" s="8"/>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A745" s="13"/>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A746" s="18"/>
+      <c r="F746" s="1"/>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A747" s="15"/>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A748" s="16"/>
+      <c r="F748" s="1"/>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A749" s="16"/>
+    </row>
+    <row r="750" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A750" s="16"/>
+      <c r="F750" s="8"/>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A751" s="13"/>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A752" s="17"/>
+      <c r="F752" s="1"/>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A753" s="13"/>
+    </row>
+    <row r="754" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A754" s="14"/>
+      <c r="F754" s="1"/>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A755" s="13"/>
+    </row>
+    <row r="756" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A756" s="18"/>
+      <c r="F756" s="8"/>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A757" s="13"/>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A758" s="18"/>
+      <c r="F758" s="1"/>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A759" s="13"/>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A760" s="17"/>
+      <c r="F760" s="1"/>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A761" s="13"/>
+    </row>
+    <row r="762" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A762" s="14"/>
+      <c r="F762" s="8"/>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A763" s="13"/>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A764" s="18"/>
+      <c r="F764" s="1"/>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A765" s="13"/>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A766" s="17"/>
+      <c r="F766" s="1"/>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A767" s="13"/>
+    </row>
+    <row r="768" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A768" s="14"/>
+      <c r="F768" s="1"/>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A769" s="13"/>
+    </row>
+    <row r="770" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A770" s="18"/>
+      <c r="F770" s="8"/>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A771" s="13"/>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A772" s="17"/>
+      <c r="F772" s="1"/>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A773" s="13"/>
+    </row>
+    <row r="774" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A774" s="19"/>
+      <c r="F774" s="1"/>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A775" s="13"/>
+    </row>
+    <row r="776" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F776" s="8"/>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A777" s="13"/>
+    </row>
+    <row r="778" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A778" s="14"/>
+      <c r="F778" s="1"/>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A779" s="13"/>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A780" s="18"/>
+      <c r="F780" s="1"/>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A781" s="13"/>
+    </row>
+    <row r="782" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A782" s="17"/>
+      <c r="F782" s="8"/>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A783" s="13"/>
+    </row>
+    <row r="784" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A784" s="14"/>
+      <c r="F784" s="1"/>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A785" s="13"/>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A786" s="17"/>
+      <c r="F786" s="1"/>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A787" s="13"/>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A788" s="17"/>
+      <c r="F788" s="2"/>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A789" s="13"/>
+    </row>
+    <row r="790" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A790" s="14"/>
+      <c r="F790" s="1"/>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A791" s="13"/>
+    </row>
+    <row r="792" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A792" s="18"/>
+      <c r="F792" s="8"/>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A793" s="13"/>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A794" s="17"/>
+      <c r="F794" s="1"/>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A795" s="13"/>
+    </row>
+    <row r="796" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A796" s="19"/>
+      <c r="F796" s="1"/>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A797" s="13"/>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F798" s="1"/>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A799" s="13"/>
+    </row>
+    <row r="800" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A800" s="14"/>
+      <c r="F800" s="8"/>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A801" s="13"/>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A802" s="18"/>
+      <c r="F802" s="1"/>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A803" s="13"/>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A804" s="24"/>
+      <c r="F804" s="1"/>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A805" s="15"/>
+    </row>
+    <row r="806" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A806" s="16"/>
+      <c r="F806" s="8"/>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A807" s="16"/>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A808" s="16"/>
+      <c r="F808" s="1"/>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A809" s="16"/>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A810" s="16"/>
+      <c r="F810" s="1"/>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A811" s="13"/>
+    </row>
+    <row r="812" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A812" s="24"/>
+      <c r="F812" s="8"/>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A813" s="15"/>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A814" s="16"/>
+      <c r="F814" s="1"/>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A815" s="16"/>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A816" s="16"/>
+      <c r="F816" s="1"/>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A817" s="16"/>
+    </row>
+    <row r="818" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A818" s="13"/>
+      <c r="F818" s="8"/>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A819" s="17"/>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A820" s="13"/>
+      <c r="F820" s="1"/>
+    </row>
+    <row r="821" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A821" s="14"/>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A822" s="13"/>
+      <c r="F822" s="1"/>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A823" s="17"/>
+    </row>
+    <row r="824" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A824" s="13"/>
+      <c r="F824" s="8"/>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A825" s="17"/>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A826" s="13"/>
+      <c r="F826" s="1"/>
+    </row>
+    <row r="827" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A827" s="14"/>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A828" s="13"/>
+      <c r="F828" s="1"/>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A829" s="18"/>
+    </row>
+    <row r="830" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A830" s="15"/>
+      <c r="F830" s="7"/>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A831" s="16"/>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A832" s="16"/>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A833" s="13"/>
+    </row>
+    <row r="834" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A834" s="17"/>
+      <c r="F834" s="8"/>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A835" s="13"/>
+    </row>
+    <row r="836" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A836" s="14"/>
+      <c r="F836" s="1"/>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A837" s="13"/>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A838" s="18"/>
+      <c r="F838" s="1"/>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A839" s="13"/>
+      <c r="F839" s="1"/>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A840" s="17"/>
+      <c r="F840" s="1"/>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A841" s="13"/>
+      <c r="F841" s="1"/>
+    </row>
+    <row r="842" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A842" s="14"/>
+      <c r="F842" s="1"/>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A843" s="13"/>
+      <c r="F843" s="1"/>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A844" s="18"/>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A845" s="13"/>
+      <c r="F845" s="1"/>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A846" s="17"/>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A847" s="13"/>
+      <c r="F847" s="1"/>
+    </row>
+    <row r="848" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A848" s="19"/>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A849" s="13"/>
+      <c r="F849" s="1"/>
+    </row>
+    <row r="851" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A851" s="13"/>
+      <c r="F851" s="8"/>
+    </row>
+    <row r="852" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A852" s="14"/>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A853" s="13"/>
+      <c r="F853" s="1"/>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A854" s="18"/>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A855" s="18"/>
+      <c r="F855" s="1"/>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A856" s="13"/>
+      <c r="F856" s="1"/>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A857" s="17"/>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A858" s="25"/>
+      <c r="F858" s="1"/>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A859" s="26"/>
+      <c r="F859" s="1"/>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A860" s="27"/>
+      <c r="F860" s="1"/>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A861" s="27"/>
+      <c r="F861" s="1"/>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A862" s="28"/>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A863" s="29"/>
+      <c r="F863" s="1"/>
+    </row>
+    <row r="864" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A864" s="30"/>
+    </row>
+    <row r="865" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A865" s="29"/>
+      <c r="F865" s="8"/>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A866" s="31"/>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A867" s="29"/>
+      <c r="F867" s="1"/>
+    </row>
+    <row r="868" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A868" s="30"/>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A869" s="29"/>
+      <c r="F869" s="1"/>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A870" s="31"/>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A871" s="18"/>
+      <c r="F871" s="1"/>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A872" s="18"/>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A873" s="17"/>
+      <c r="F873" s="1"/>
+    </row>
+    <row r="875" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F875" s="8"/>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F877" s="1"/>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F879" s="1"/>
+    </row>
+    <row r="881" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F881" s="1"/>
+    </row>
+    <row r="883" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F883" s="8"/>
+    </row>
+    <row r="885" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F885" s="1"/>
+    </row>
+    <row r="887" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F887" s="1"/>
+    </row>
+    <row r="889" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F889" s="8"/>
+    </row>
+    <row r="891" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F891" s="1"/>
+    </row>
+    <row r="893" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F893" s="1"/>
+    </row>
+    <row r="895" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F895" s="8"/>
+    </row>
+    <row r="897" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F897" s="1"/>
+    </row>
+    <row r="899" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F899" s="1"/>
+    </row>
+    <row r="901" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F901" s="8"/>
+    </row>
+    <row r="903" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F903" s="1"/>
+    </row>
+    <row r="905" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F905" s="1"/>
+    </row>
+    <row r="907" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F907" s="1"/>
+    </row>
+    <row r="909" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F909" s="8"/>
+    </row>
+    <row r="911" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F911" s="1"/>
+    </row>
+    <row r="913" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F913" s="1"/>
+    </row>
+    <row r="915" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F915" s="1"/>
+    </row>
+    <row r="917" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F917" s="1"/>
+    </row>
+    <row r="919" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F919" s="8"/>
+    </row>
+    <row r="921" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F921" s="1"/>
+    </row>
+    <row r="923" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F923" s="1"/>
+    </row>
+    <row r="925" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F925" s="7"/>
+    </row>
+    <row r="929" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F929" s="8"/>
+    </row>
+    <row r="931" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F931" s="1"/>
+    </row>
+    <row r="933" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F933" s="1"/>
+    </row>
+    <row r="934" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F934" s="1"/>
+    </row>
+    <row r="935" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F935" s="1"/>
+    </row>
+    <row r="936" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F936" s="1"/>
+    </row>
+    <row r="938" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F938" s="1"/>
+    </row>
+    <row r="940" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F940" s="1"/>
+    </row>
+    <row r="942" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F942" s="8"/>
+    </row>
+    <row r="944" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F944" s="1"/>
+    </row>
+    <row r="946" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F946" s="1"/>
+    </row>
+    <row r="948" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F948" s="8"/>
+    </row>
+    <row r="950" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F950" s="1"/>
+    </row>
+    <row r="952" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F952" s="1"/>
+    </row>
+    <row r="954" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F954" s="8"/>
+    </row>
+    <row r="956" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F956" s="1"/>
+    </row>
+    <row r="958" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F958" s="1"/>
+    </row>
+    <row r="960" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F960" s="8"/>
+    </row>
+    <row r="962" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F962" s="1"/>
+    </row>
+    <row r="964" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F964" s="1"/>
+    </row>
+    <row r="966" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F966" s="7"/>
+    </row>
+    <row r="970" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F970" s="8"/>
+    </row>
+    <row r="972" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F972" s="1"/>
+    </row>
+    <row r="974" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F974" s="1"/>
+    </row>
+    <row r="976" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F976" s="8"/>
+    </row>
+    <row r="978" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F978" s="1"/>
+    </row>
+    <row r="980" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F980" s="1"/>
+    </row>
+    <row r="981" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F981" s="1"/>
+    </row>
+    <row r="982" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F982" s="1"/>
+    </row>
+    <row r="984" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F984" s="1"/>
+    </row>
+    <row r="986" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F986" s="1"/>
+    </row>
+    <row r="987" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F987" s="1"/>
+    </row>
+    <row r="988" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F988" s="1"/>
+    </row>
+    <row r="989" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F989" s="1"/>
+    </row>
+    <row r="991" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F991" s="1"/>
+    </row>
+    <row r="993" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F993" s="1"/>
+    </row>
+    <row r="995" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F995" s="8"/>
+    </row>
+    <row r="997" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F997" s="1"/>
+    </row>
+    <row r="999" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F999" s="1"/>
+    </row>
+    <row r="1001" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1001" s="8"/>
+    </row>
+    <row r="1003" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1003" s="1"/>
+    </row>
+    <row r="1005" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1005" s="1"/>
+    </row>
+    <row r="1007" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1007" s="8"/>
+    </row>
+    <row r="1009" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1009" s="1"/>
+    </row>
+    <row r="1011" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1011" s="1"/>
+    </row>
+    <row r="1013" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1013" s="8"/>
+    </row>
+    <row r="1015" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1015" s="1"/>
+    </row>
+    <row r="1017" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1017" s="1"/>
+    </row>
+    <row r="1019" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1019" s="8"/>
+    </row>
+    <row r="1021" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1021" s="1"/>
+    </row>
+    <row r="1023" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1023" s="1"/>
+    </row>
+    <row r="1025" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1025" s="8"/>
+    </row>
+    <row r="1027" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1027" s="1"/>
+    </row>
+    <row r="1029" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1029" s="1"/>
+    </row>
+    <row r="1031" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1031" s="8"/>
+    </row>
+    <row r="1033" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1033" s="1"/>
+    </row>
+    <row r="1035" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1035" s="1"/>
+    </row>
+    <row r="1036" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1036" s="1"/>
+    </row>
+    <row r="1038" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1038" s="1"/>
+    </row>
+    <row r="1040" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1040" s="1"/>
+    </row>
+    <row r="1042" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1042" s="8"/>
+    </row>
+    <row r="1044" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1044" s="1"/>
+    </row>
+    <row r="1046" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1046" s="1"/>
+    </row>
+    <row r="1048" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1048" s="8"/>
+    </row>
+    <row r="1050" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1050" s="1"/>
+    </row>
+    <row r="1052" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1052" s="1"/>
+    </row>
+    <row r="1054" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1054" s="1"/>
+    </row>
+    <row r="1056" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1056" s="1"/>
+    </row>
+    <row r="1058" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1058" s="8"/>
+    </row>
+    <row r="1060" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1060" s="1"/>
+    </row>
+    <row r="1062" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1062" s="1"/>
+    </row>
+    <row r="1063" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1063" s="1"/>
+    </row>
+    <row r="1064" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1064" s="1"/>
+    </row>
+    <row r="1066" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1066" s="1"/>
+    </row>
+    <row r="1068" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1068" s="1"/>
+    </row>
+    <row r="1069" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1069" s="1"/>
+    </row>
+    <row r="1070" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1070" s="1"/>
+    </row>
+    <row r="1072" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1072" s="1"/>
+    </row>
+    <row r="1074" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1074" s="8"/>
+    </row>
+    <row r="1076" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1076" s="1"/>
+    </row>
+    <row r="1078" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1078" s="1"/>
+    </row>
+    <row r="1079" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1079" s="1"/>
+    </row>
+    <row r="1080" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1080" s="1"/>
+    </row>
+    <row r="1081" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1081" s="1"/>
+    </row>
+    <row r="1083" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1083" s="1"/>
+    </row>
+    <row r="1085" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1085" s="7"/>
+    </row>
+    <row r="1089" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1089" s="8"/>
+    </row>
+    <row r="1091" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1091" s="1"/>
+    </row>
+    <row r="1093" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1093" s="1"/>
+    </row>
+    <row r="1095" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1095" s="8"/>
+    </row>
+    <row r="1097" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1097" s="1"/>
+    </row>
+    <row r="1099" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1099" s="1"/>
+    </row>
+    <row r="1101" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1101" s="8"/>
+    </row>
+    <row r="1103" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1103" s="1"/>
+    </row>
+    <row r="1105" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1105" s="1"/>
+    </row>
+    <row r="1107" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1107" s="8"/>
+    </row>
+    <row r="1109" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1109" s="1"/>
+    </row>
+    <row r="1111" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1111" s="1"/>
+    </row>
+    <row r="1113" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1113" s="1"/>
+    </row>
+    <row r="1115" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1115" s="7"/>
+    </row>
+    <row r="1119" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1119" s="8"/>
+    </row>
+    <row r="1121" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1121" s="1"/>
+    </row>
+    <row r="1123" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1123" s="1"/>
+    </row>
+    <row r="1125" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1125" s="8"/>
+    </row>
+    <row r="1127" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1127" s="1"/>
+    </row>
+    <row r="1129" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1129" s="1"/>
+    </row>
+    <row r="1130" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1130" s="1"/>
+    </row>
+    <row r="1131" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1131" s="1"/>
+    </row>
+    <row r="1132" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1132" s="1"/>
+    </row>
+    <row r="1134" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1134" s="1"/>
+    </row>
+    <row r="1136" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1136" s="8"/>
+    </row>
+    <row r="1138" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1138" s="1"/>
+    </row>
+    <row r="1140" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1140" s="1"/>
+    </row>
+    <row r="1142" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1142" s="1"/>
+    </row>
+    <row r="1144" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1144" s="8"/>
+    </row>
+    <row r="1146" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1146" s="1"/>
+    </row>
+    <row r="1148" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1148" s="1"/>
+    </row>
+    <row r="1149" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1149" s="1"/>
+    </row>
+    <row r="1151" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1151" s="1"/>
+    </row>
+    <row r="1153" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1153" s="7"/>
+    </row>
+    <row r="1157" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1157" s="8"/>
+    </row>
+    <row r="1159" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1159" s="1"/>
+    </row>
+    <row r="1161" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1161" s="1"/>
+    </row>
+    <row r="1163" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1163" s="1"/>
+    </row>
+    <row r="1164" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1164" s="1"/>
+    </row>
+    <row r="1165" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1165" s="1"/>
+    </row>
+    <row r="1167" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1167" s="1"/>
+    </row>
+    <row r="1169" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1169" s="8"/>
+    </row>
+    <row r="1171" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1171" s="1"/>
+    </row>
+    <row r="1173" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1173" s="1"/>
+    </row>
+    <row r="1175" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1175" s="1"/>
+    </row>
+    <row r="1177" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1177" s="8"/>
+    </row>
+    <row r="1179" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1179" s="1"/>
+    </row>
+    <row r="1181" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1181" s="1"/>
+    </row>
+    <row r="1183" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1183" s="8"/>
+    </row>
+    <row r="1185" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1185" s="1"/>
+    </row>
+    <row r="1187" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1187" s="1"/>
+    </row>
+    <row r="1189" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1189" s="7"/>
+    </row>
+    <row r="1193" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1193" s="8"/>
+    </row>
+    <row r="1195" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1195" s="1"/>
+    </row>
+    <row r="1197" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1197" s="1"/>
+    </row>
+    <row r="1199" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1199" s="8"/>
+    </row>
+    <row r="1201" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1201" s="1"/>
+    </row>
+    <row r="1203" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1203" s="1"/>
+    </row>
+    <row r="1205" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1205" s="8"/>
+    </row>
+    <row r="1207" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1207" s="1"/>
+    </row>
+    <row r="1209" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1209" s="1"/>
+    </row>
+    <row r="1211" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1211" s="7"/>
+    </row>
+    <row r="1215" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1215" s="8"/>
+    </row>
+    <row r="1217" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1217" s="1"/>
+    </row>
+    <row r="1219" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1219" s="5"/>
+    </row>
+    <row r="1221" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1221" s="1"/>
+    </row>
+    <row r="1222" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1222" s="1"/>
+    </row>
+    <row r="1223" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1223" s="1"/>
+    </row>
+    <row r="1224" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1224" s="1"/>
+    </row>
+    <row r="1225" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1225" s="1"/>
+    </row>
+    <row r="1227" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1227" s="5"/>
+    </row>
+    <row r="1229" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1229" s="1"/>
+    </row>
+    <row r="1230" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1230" s="1"/>
+    </row>
+    <row r="1231" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1231" s="1"/>
+    </row>
+    <row r="1232" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1232" s="1"/>
+    </row>
+    <row r="1234" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1234" s="1"/>
+    </row>
+    <row r="1236" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1236" s="8"/>
+    </row>
+    <row r="1238" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1238" s="1"/>
+    </row>
+    <row r="1240" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1240" s="1"/>
+    </row>
+    <row r="1242" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1242" s="8"/>
+    </row>
+    <row r="1244" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1244" s="1"/>
+    </row>
+    <row r="1246" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1246" s="1"/>
+    </row>
+    <row r="1247" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1247" s="1"/>
+    </row>
+    <row r="1249" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1249" s="1"/>
+    </row>
+    <row r="1251" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1251" s="8"/>
+    </row>
+    <row r="1253" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1253" s="1"/>
+    </row>
+    <row r="1255" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1255" s="1"/>
+    </row>
+    <row r="1257" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1257" s="8"/>
+    </row>
+    <row r="1259" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1259" s="1"/>
+    </row>
+    <row r="1261" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1261" s="1"/>
+    </row>
+    <row r="1263" spans="6:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="F1263" s="7"/>
+    </row>
+    <row r="1267" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1267" s="8"/>
+    </row>
+    <row r="1269" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1269" s="1"/>
+    </row>
+    <row r="1270" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1270" s="1"/>
+    </row>
+    <row r="1272" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1272" s="1"/>
+    </row>
+    <row r="1274" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1274" s="6"/>
+    </row>
+    <row r="1275" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1275" s="9"/>
+    </row>
+    <row r="1276" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1276" s="9"/>
+    </row>
+    <row r="1277" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1277" s="9"/>
+    </row>
+    <row r="1279" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1279" s="10"/>
+    </row>
+    <row r="1281" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1281" s="9"/>
+    </row>
+    <row r="1283" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F1283" s="10"/>
+    </row>
+    <row r="1285" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1285" s="9"/>
+    </row>
+    <row r="1286" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1286" s="1"/>
+    </row>
+    <row r="1287" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F1287" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Petersen\Documents\GitHub\ChatFAQs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC68E3-BACF-48BF-9601-BB8FE6FE41D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF6D36-2D84-4872-9F75-6076E904C64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="-72" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="348" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>What new enhancements are available in NM MyChart (web)?</t>
   </si>
   <si>
     <t>&lt;h2 id="RE_enhancements"&gt;What new enhancements are available in NM MyChart (web)?&lt;/h2&gt;&lt;p&gt;&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Include certain attachments, like photos and video, on messages sent to your provider.&lt;/li&gt;&lt;li&gt;Complete the Pre Check-In process from home, saving you time when you arrive for your appointment. You can electronically sign documents, update your demographics information, add or verify insurance (including submitting insurance card images), add credit card information to pay outstanding balances, pre-payments, or authorize copays, and update information about your medical history (including your medications, allergies, and preferred pharmacy).&lt;/li&gt;&lt;li&gt;View orders and tests placed by your physician.&lt;/li&gt;&lt;li&gt;Request records and view copies of information released from Medical Records.&lt;/li&gt;&lt;li&gt;Patients who are pregnant can pre-register for their day of delivery to save time when arriving at the hospital.&lt;/li&gt;&lt;li&gt;Link your NM MyChart account to other organizations via Happy Together to view clinical information from another organization in your NM MyChart account. &lt;/li&gt;&lt;li&gt;Allow non-NM physicians to review your NM MyChart information by generating a Share Everywhere code. &lt;/li&gt;&lt;li&gt;Utilize the Pay as Guest page to pay bills without needing to log into your MyChart account. &lt;/li&gt;&lt;li&gt;Keep your clinicians up-to-date on your End-of-Life / Advance Care Planning decisions by uploading the associated documents in our Advance Care Planning activity.&lt;/li&gt;&lt;li&gt;Keep track of all of your documents in the My Documents section. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>What new enhancements are available in the MyNM app?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The MyNM app is a brand new digital platform launched in December 2018, which offers you the same functionality as the MyChart app, including:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Send secure electronic messages to your doctor’s office.&lt;/li&gt;&lt;li&gt;Access health information related to your care.&lt;/li&gt;&lt;li&gt;View your lab results and discharge instructions.&lt;/li&gt;&lt;li&gt;Request prescription refills.&lt;/li&gt;&lt;li&gt;Schedule, change, or view your appointments.&lt;/li&gt;&lt;li&gt;View billing statements and pay your outstanding balances.&lt;/li&gt;&lt;li&gt;View the health record and billing information for your family member(s) via Proxy Access.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;In addition to these MyChart-related features, the MyNM app introduces these &lt;strong&gt;new&lt;/strong&gt; features:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt; Find a physician or location&lt;/li&gt;&lt;li&gt;Access real-time, indoor turn-by-turn directions for locations on the downtown Northwestern Memorial Hospital campus&lt;/li&gt;&lt;li&gt;Obtain information about Northwestern Medicine from anywhere, anytime&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>What is MyChart?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MyChart offers patients personalized and secure on-line access to portions of their medical records. It enables you to securely use the Internet to help manage and receive information about your health*. With MyChart or the MyNM app, you can use the Internet to:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Send secure electronic messages to your doctor's office.&lt;/li&gt;&lt;li&gt;Access health information related to your care.&lt;/li&gt;&lt;li&gt;View your lab results and discharge instructions.&lt;/li&gt;&lt;li&gt;Request prescription refills.&lt;/li&gt;&lt;li&gt;Schedule, change, or view your appointments.&lt;/li&gt;&lt;li&gt;View billing statements and pay your outstanding balances.&lt;/li&gt;&lt;li&gt;View the health record and billing information for your family member(s) via Proxy Access&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;For further information, please review the MyChart Terms and Conditions.&lt;/p&gt;&lt;p&gt;*Some of MyChart's features may not be available for hospital-based care&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Should I use MyChart in an urgent situation?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Neither MyChart nor the MyNM app should be used for urgent matters. If you are experiencing a life-threatening illness or injury, please go to the nearest hospital emergency department and/or dial 9-1-1 for immediate attention.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Is there a fee to use MyChart or the MyNM app?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Both the MyNM app and MyChart are free services offered to our patients. Some features, like certain virtual visits, might have a fee associated.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>How do I sign up for NM MyChart?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;NM MyChart requires that you have an Access Code  in order to enroll and create an account. There are a few ways you can get an Access Code:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;During an office visit with your doctor, check-in staff may ask if you are interested in enrolling and send you an email with an Access Code.&lt;/li&gt;&lt;li&gt;If you aren't asked to enroll during check-in, you should receive an Access Code on your visit summary paperwork before you leave the office.&lt;/li&gt;&lt;li&gt;If you don't have an upcoming appointment or don't want to wait, you can always visit the &lt;a href="https://myc.nm.org/MyChart/default.asp?mode=stdfile&amp;amp;option=SE_Access&amp;amp;_ga=2.190000811.1467205995.1547159809-1465696264.1522082464" target="_blank"&gt;NM MyChart enrollment activity&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;If you are stuck or have questions, please contact our NM MyChart Help Desk at 1-855-HLP-MYNM (1-855-457-6966).&lt;/li&gt;&lt;li&gt;&lt;a href="#NM_get"&gt;Click here to learn how to download the MyNM app&lt;/a&gt;.
+&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -163,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +269,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,35 +582,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>

--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Petersen\Documents\GitHub\ChatFAQs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC68E3-BACF-48BF-9601-BB8FE6FE41D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08789E5-3B96-4487-BEF3-B2C74E55EBF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="-72" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="348" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>What new enhancements are available in NM MyChart (web)?</t>
   </si>
   <si>
     <t>&lt;h2 id="RE_enhancements"&gt;What new enhancements are available in NM MyChart (web)?&lt;/h2&gt;&lt;p&gt;&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Include certain attachments, like photos and video, on messages sent to your provider.&lt;/li&gt;&lt;li&gt;Complete the Pre Check-In process from home, saving you time when you arrive for your appointment. You can electronically sign documents, update your demographics information, add or verify insurance (including submitting insurance card images), add credit card information to pay outstanding balances, pre-payments, or authorize copays, and update information about your medical history (including your medications, allergies, and preferred pharmacy).&lt;/li&gt;&lt;li&gt;View orders and tests placed by your physician.&lt;/li&gt;&lt;li&gt;Request records and view copies of information released from Medical Records.&lt;/li&gt;&lt;li&gt;Patients who are pregnant can pre-register for their day of delivery to save time when arriving at the hospital.&lt;/li&gt;&lt;li&gt;Link your NM MyChart account to other organizations via Happy Together to view clinical information from another organization in your NM MyChart account. &lt;/li&gt;&lt;li&gt;Allow non-NM physicians to review your NM MyChart information by generating a Share Everywhere code. &lt;/li&gt;&lt;li&gt;Utilize the Pay as Guest page to pay bills without needing to log into your MyChart account. &lt;/li&gt;&lt;li&gt;Keep your clinicians up-to-date on your End-of-Life / Advance Care Planning decisions by uploading the associated documents in our Advance Care Planning activity.&lt;/li&gt;&lt;li&gt;Keep track of all of your documents in the My Documents section. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>What new enhancements are available in the MyNM app?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The MyNM app is a brand new digital platform launched in December 2018, which offers you the same functionality as the MyChart app, including:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Send secure electronic messages to your doctor’s office.&lt;/li&gt;&lt;li&gt;Access health information related to your care.&lt;/li&gt;&lt;li&gt;View your lab results and discharge instructions.&lt;/li&gt;&lt;li&gt;Request prescription refills.&lt;/li&gt;&lt;li&gt;Schedule, change, or view your appointments.&lt;/li&gt;&lt;li&gt;View billing statements and pay your outstanding balances.&lt;/li&gt;&lt;li&gt;View the health record and billing information for your family member(s) via Proxy Access.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;In addition to these MyChart-related features, the MyNM app introduces these &lt;strong&gt;new&lt;/strong&gt; features:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt; Find a physician or location&lt;/li&gt;&lt;li&gt;Access real-time, indoor turn-by-turn directions for locations on the downtown Northwestern Memorial Hospital campus&lt;/li&gt;&lt;li&gt;Obtain information about Northwestern Medicine from anywhere, anytime&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>What is MyChart?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;MyChart offers patients personalized and secure on-line access to portions of their medical records. It enables you to securely use the Internet to help manage and receive information about your health*. With MyChart or the MyNM app, you can use the Internet to:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;Send secure electronic messages to your doctor's office.&lt;/li&gt;&lt;li&gt;Access health information related to your care.&lt;/li&gt;&lt;li&gt;View your lab results and discharge instructions.&lt;/li&gt;&lt;li&gt;Request prescription refills.&lt;/li&gt;&lt;li&gt;Schedule, change, or view your appointments.&lt;/li&gt;&lt;li&gt;View billing statements and pay your outstanding balances.&lt;/li&gt;&lt;li&gt;View the health record and billing information for your family member(s) via Proxy Access&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;For further information, please review the MyChart Terms and Conditions.&lt;/p&gt;&lt;p&gt;*Some of MyChart's features may not be available for hospital-based care&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Should I use MyChart in an urgent situation?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Neither MyChart nor the MyNM app should be used for urgent matters. If you are experiencing a life-threatening illness or injury, please go to the nearest hospital emergency department and/or dial 9-1-1 for immediate attention.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Is there a fee to use MyChart or the MyNM app?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Both the MyNM app and MyChart are free services offered to our patients. Some features, like certain virtual visits, might have a fee associated.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>How do I sign up for NM MyChart?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;NM MyChart requires that you have an Access Code  in order to enroll and create an account. There are a few ways you can get an Access Code:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;During an office visit with your doctor, check-in staff may ask if you are interested in enrolling and send you an email with an Access Code.&lt;/li&gt;&lt;li&gt;If you aren't asked to enroll during check-in, you should receive an Access Code on your visit summary paperwork before you leave the office.&lt;/li&gt;&lt;li&gt;If you don't have an upcoming appointment or don't want to wait, you can always visit the &lt;a href="https://myc.nm.org/MyChart/default.asp?mode=stdfile&amp;amp;option=SE_Access&amp;amp;_ga=2.190000811.1467205995.1547159809-1465696264.1522082464" target="_blank"&gt;NM MyChart enrollment activity&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;If you are stuck or have questions, please contact our NM MyChart Help Desk at 1-855-HLP-MYNM (1-855-457-6966).&lt;/li&gt;&lt;li&gt;&lt;a href="#NM_get"&gt;Click here to learn how to download the MyNM app&lt;/a&gt;.
+&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
 </sst>
 </file>
@@ -163,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +269,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,35 +582,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.3984375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>

--- a/data/faqs.xlsx
+++ b/data/faqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Petersen\Documents\GitHub\ChatFAQs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FF6D36-2D84-4872-9F75-6076E904C64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786997CF-43E2-4285-927A-2A18091F8B52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="348" windowWidth="14400" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,11 +60,11 @@
     <t>&lt;p&gt;Both the MyNM app and MyChart are free services offered to our patients. Some features, like certain virtual visits, might have a fee associated.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>How do I sign up for NM MyChart?</t>
+    <t>&lt;p&gt;NM MyChart requires that you have an Access Code  in order to enroll and create an account. There are a few ways you can get an Access Code:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;During an office visit with your doctor, check-in staff may ask if you are interested in enrolling and send you an email with an Access Code.&lt;/li&gt;&lt;li&gt;If you aren't asked to enroll during check-in, you should receive an Access Code on your visit summary paperwork before you leave the office.&lt;/li&gt;&lt;li&gt;If you don't have an upcoming appointment or don't want to wait, you can always visit the &lt;a href="https://myc.nm.org/MyChart/default.asp?mode=stdfile&amp;amp;option=SE_Access&amp;amp;_ga=2.190000811.1467205995.1547159809-1465696264.1522082464" target="_blank"&gt;NM MyChart enrollment activity&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;If you are stuck or have questions, please contact our NM MyChart Help Desk at 1-855-HLP-MYNM (1-855-457-6966).&lt;/li&gt;&lt;li&gt;&lt;a href="#NM_get"&gt;Click here to learn how to download the MyNM app&lt;/a&gt;.
+&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;p&gt;NM MyChart requires that you have an Access Code  in order to enroll and create an account. There are a few ways you can get an Access Code:&lt;/p&gt;&lt;ul class="bulleted"&gt;&lt;li&gt;During an office visit with your doctor, check-in staff may ask if you are interested in enrolling and send you an email with an Access Code.&lt;/li&gt;&lt;li&gt;If you aren't asked to enroll during check-in, you should receive an Access Code on your visit summary paperwork before you leave the office.&lt;/li&gt;&lt;li&gt;If you don't have an upcoming appointment or don't want to wait, you can always visit the &lt;a href="https://myc.nm.org/MyChart/default.asp?mode=stdfile&amp;amp;option=SE_Access&amp;amp;_ga=2.190000811.1467205995.1547159809-1465696264.1522082464" target="_blank"&gt;NM MyChart enrollment activity&lt;/a&gt;.&lt;/li&gt;&lt;li&gt;If you are stuck or have questions, please contact our NM MyChart Help Desk at 1-855-HLP-MYNM (1-855-457-6966).&lt;/li&gt;&lt;li&gt;&lt;a href="#NM_get"&gt;Click here to learn how to download the MyNM app&lt;/a&gt;.
-&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>How do I sign up for NM MyChart</t>
   </si>
 </sst>
 </file>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1287"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -634,10 +634,10 @@
     </row>
     <row r="6" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
